--- a/Mifos Automation Excels/Client/2684-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-EARLYREPAY-RunPERon31JAN-AccCL31JAN-REPAY10thFEB-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2684-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-EARLYREPAY-RunPERon31JAN-AccCL31JAN-REPAY10thFEB-Newcreateloan1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>Head Office</t>
   </si>
@@ -1052,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>132</v>
+        <v>3502</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>0</v>
@@ -1135,25 +1135,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>133</v>
+        <v>3501</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="17">
-        <v>41671</v>
+        <v>41670</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="14">
-        <v>1.36</v>
+        <v>28.49</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
       </c>
       <c r="G3" s="14">
-        <v>1.36</v>
+        <v>28.49</v>
       </c>
       <c r="H3" s="14">
         <v>0</v>
@@ -1169,25 +1169,25 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
-        <v>131</v>
+        <v>3500</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="17">
-        <v>41670</v>
+        <v>41649</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="14">
-        <v>28.49</v>
+        <v>14.79</v>
       </c>
       <c r="F4" s="14">
         <v>0</v>
       </c>
       <c r="G4" s="14">
-        <v>28.49</v>
+        <v>14.79</v>
       </c>
       <c r="H4" s="14">
         <v>0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
-        <v>130</v>
+        <v>3497</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>41649</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5" s="14">
-        <v>14.79</v>
+        <v>887.72</v>
       </c>
       <c r="F5" s="14">
-        <v>0</v>
+        <v>872.93</v>
       </c>
       <c r="G5" s="14">
         <v>14.79</v>
@@ -1229,33 +1229,33 @@
       <c r="I5" s="14">
         <v>0</v>
       </c>
-      <c r="J5" s="14">
-        <v>0</v>
+      <c r="J5" s="19">
+        <v>4127.07</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
-        <v>129</v>
+        <v>3496</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="17">
-        <v>41649</v>
+        <v>41640</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="14">
-        <v>887.72</v>
+        <v>52</v>
+      </c>
+      <c r="E6" s="13">
+        <v>5000</v>
       </c>
       <c r="F6" s="14">
-        <v>872.93</v>
+        <v>0</v>
       </c>
       <c r="G6" s="14">
-        <v>14.79</v>
+        <v>0</v>
       </c>
       <c r="H6" s="14">
         <v>0</v>
@@ -1263,41 +1263,7 @@
       <c r="I6" s="14">
         <v>0</v>
       </c>
-      <c r="J6" s="19">
-        <v>4127.07</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>128</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17">
-        <v>41640</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="13">
-        <v>5000</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="J6" s="13">
         <v>5000</v>
       </c>
     </row>
